--- a/data/trans_orig/P12_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P12_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E601DF5C-0632-4474-B52E-25B09499B7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F31F2336-4664-45EF-94F2-4E3253181591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD4BE9FB-5D6E-4366-B31F-8E0D40FECB2E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{851322CD-DB3E-4ECA-8A96-27038CDA2965}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,25 +80,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,06%</t>
+    <t>6,75%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>98,09%</t>
   </si>
   <si>
-    <t>93,94%</t>
+    <t>93,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,19 +116,19 @@
     <t>96,74%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1171 +140,1171 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>90,48%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
   </si>
   <si>
     <t>84,71%</t>
@@ -1731,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D63F53F-BD15-467A-8E11-EE7443C7E849}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AD0BE7-88B9-486D-A597-D6160B97D28B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2326,7 +2326,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -2335,13 +2335,13 @@
         <v>51772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -2350,13 +2350,13 @@
         <v>86181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2371,13 @@
         <v>644099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>643</v>
@@ -2386,13 +2386,13 @@
         <v>632069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1252</v>
@@ -2401,13 +2401,13 @@
         <v>1276169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2475,13 +2475,13 @@
         <v>46571</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -2490,13 +2490,13 @@
         <v>110479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>155</v>
@@ -2505,13 +2505,13 @@
         <v>157050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2526,13 @@
         <v>895651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>890</v>
@@ -2541,13 +2541,13 @@
         <v>928133</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1836</v>
@@ -2556,13 +2556,13 @@
         <v>1823784</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,10 +2633,10 @@
         <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>277</v>
@@ -2645,13 +2645,13 @@
         <v>286526</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>439</v>
@@ -2660,13 +2660,13 @@
         <v>452571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2681,13 @@
         <v>3110498</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3020</v>
@@ -2696,28 +2696,28 @@
         <v>3092672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6072</v>
       </c>
       <c r="N20" s="7">
-        <v>6203169</v>
+        <v>6203170</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2759,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDF26A0-BEE8-4815-9FF7-3A6EA3ACA0CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CF2252-27BA-4B37-923F-5AF8BFB5B3CA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2918,13 @@
         <v>9171</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -2933,13 +2933,13 @@
         <v>17334</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -2948,13 +2948,13 @@
         <v>26505</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2969,13 @@
         <v>105629</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -2984,13 +2984,13 @@
         <v>94571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -2999,13 +2999,13 @@
         <v>200200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3073,13 @@
         <v>49443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -3088,13 +3088,13 @@
         <v>79946</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -3103,13 +3103,13 @@
         <v>129388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3124,13 @@
         <v>538261</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>475</v>
@@ -3139,13 +3139,13 @@
         <v>503238</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>980</v>
@@ -3154,13 +3154,13 @@
         <v>1041500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3228,13 @@
         <v>82827</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -3243,13 +3243,13 @@
         <v>140012</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>199</v>
@@ -3258,13 +3258,13 @@
         <v>222839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3279,13 @@
         <v>932857</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>814</v>
@@ -3294,13 +3294,13 @@
         <v>890072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1673</v>
@@ -3309,13 +3309,13 @@
         <v>1822929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>51608</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -3398,13 +3398,13 @@
         <v>88546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -3413,13 +3413,13 @@
         <v>140155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3434,13 @@
         <v>704607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>623</v>
@@ -3449,13 +3449,13 @@
         <v>686654</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1264</v>
@@ -3464,13 +3464,13 @@
         <v>1391259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3538,13 +3538,13 @@
         <v>83459</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>136</v>
@@ -3553,13 +3553,13 @@
         <v>146438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -3568,13 +3568,13 @@
         <v>229897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3589,13 @@
         <v>863343</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>867</v>
@@ -3604,28 +3604,28 @@
         <v>905463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1697</v>
       </c>
       <c r="N17" s="7">
-        <v>1768807</v>
+        <v>1768806</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,7 +3667,7 @@
         <v>1912</v>
       </c>
       <c r="N18" s="7">
-        <v>1998704</v>
+        <v>1998703</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3693,13 +3693,13 @@
         <v>276508</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>430</v>
@@ -3708,13 +3708,13 @@
         <v>472276</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>689</v>
@@ -3723,13 +3723,13 @@
         <v>748783</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3744,13 @@
         <v>3144697</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2862</v>
@@ -3759,28 +3759,28 @@
         <v>3079998</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>5807</v>
       </c>
       <c r="N20" s="7">
-        <v>6224696</v>
+        <v>6224695</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3822,7 @@
         <v>6496</v>
       </c>
       <c r="N21" s="7">
-        <v>6973479</v>
+        <v>6973478</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5AB892-F70E-498F-8DB2-F3539AB8374E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C98472B-12B1-4A4D-93F8-B326122E1EBE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3981,13 @@
         <v>12289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -3996,13 +3996,13 @@
         <v>18844</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -4011,13 +4011,13 @@
         <v>31133</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4032,13 @@
         <v>103111</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -4047,13 +4047,13 @@
         <v>94516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>198</v>
@@ -4062,13 +4062,13 @@
         <v>197627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4136,13 @@
         <v>52036</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4151,13 +4151,13 @@
         <v>74664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
@@ -4166,13 +4166,13 @@
         <v>126700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4187,13 @@
         <v>505130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -4202,13 +4202,13 @@
         <v>483089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>965</v>
@@ -4217,13 +4217,13 @@
         <v>988219</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4291,13 @@
         <v>56974</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -4306,13 +4306,13 @@
         <v>96123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -4321,13 +4321,13 @@
         <v>153096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4342,13 @@
         <v>964470</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -4357,13 +4357,13 @@
         <v>946790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>1787</v>
@@ -4372,13 +4372,13 @@
         <v>1911261</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4446,13 @@
         <v>52039</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4461,13 +4461,13 @@
         <v>85104</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -4476,13 +4476,13 @@
         <v>137144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4497,13 @@
         <v>707513</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -4512,13 +4512,13 @@
         <v>697467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>1306</v>
@@ -4527,13 +4527,13 @@
         <v>1404980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4589,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4601,13 +4601,13 @@
         <v>76747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>124</v>
@@ -4616,13 +4616,13 @@
         <v>140609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -4631,13 +4631,13 @@
         <v>217356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4652,13 @@
         <v>858769</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>832</v>
@@ -4667,13 +4667,13 @@
         <v>900275</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>1687</v>
@@ -4682,13 +4682,13 @@
         <v>1759043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,10 +4759,10 @@
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>373</v>
@@ -4771,13 +4771,13 @@
         <v>415345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>614</v>
@@ -4786,13 +4786,13 @@
         <v>665430</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,10 +4810,10 @@
         <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>2958</v>
@@ -4822,13 +4822,13 @@
         <v>3122136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>5943</v>
@@ -4837,13 +4837,13 @@
         <v>6261129</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A465AC0F-E8D0-4963-BBFA-02368B0E631C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C26E4A-A646-4C42-86E6-05ADB871FBCD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5044,13 @@
         <v>6438</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5059,13 +5059,13 @@
         <v>7241</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5074,13 +5074,13 @@
         <v>13680</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5095,13 @@
         <v>94137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>226</v>
@@ -5110,13 +5110,13 @@
         <v>123116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>336</v>
@@ -5125,13 +5125,13 @@
         <v>217252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5199,13 @@
         <v>59105</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -5214,13 +5214,13 @@
         <v>82634</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>133</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -5229,13 +5229,13 @@
         <v>141739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5250,13 @@
         <v>490718</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>841</v>
@@ -5265,13 +5265,13 @@
         <v>508705</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>1384</v>
@@ -5280,13 +5280,13 @@
         <v>999423</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5354,13 @@
         <v>99582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>247</v>
@@ -5369,13 +5369,13 @@
         <v>161500</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>353</v>
@@ -5384,13 +5384,13 @@
         <v>261082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5405,13 @@
         <v>939170</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>1267</v>
@@ -5420,13 +5420,13 @@
         <v>896978</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>2124</v>
@@ -5435,13 +5435,13 @@
         <v>1836148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5509,13 @@
         <v>79823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -5524,13 +5524,13 @@
         <v>95208</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>209</v>
@@ -5539,13 +5539,13 @@
         <v>175031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5560,13 @@
         <v>647325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>915</v>
@@ -5575,13 +5575,13 @@
         <v>778344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>1512</v>
@@ -5590,13 +5590,13 @@
         <v>1425669</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5664,13 +5664,13 @@
         <v>117617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>274</v>
@@ -5679,13 +5679,13 @@
         <v>190504</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>410</v>
@@ -5694,7 +5694,7 @@
         <v>308121</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>402</v>
@@ -5715,13 +5715,13 @@
         <v>847786</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>1288</v>
@@ -5730,13 +5730,13 @@
         <v>959928</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>2158</v>
@@ -5745,13 +5745,13 @@
         <v>1807714</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5819,13 @@
         <v>362565</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>820</v>
@@ -5834,13 +5834,13 @@
         <v>537088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>1216</v>
@@ -5849,13 +5849,13 @@
         <v>899653</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5870,13 @@
         <v>3019136</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>4537</v>
@@ -5885,7 +5885,7 @@
         <v>3267070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>422</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P12_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P12_3_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F31F2336-4664-45EF-94F2-4E3253181591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4A3BE9-3273-4187-81A8-F284B06C62E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{851322CD-DB3E-4ECA-8A96-27038CDA2965}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F314C836-3315-4589-A401-79A838DFCD82}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
   <si>
     <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,75%</t>
+    <t>5,97%</t>
   </si>
   <si>
     <t>3,26%</t>
@@ -89,16 +89,16 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>7,4%</t>
+    <t>7,31%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>98,09%</t>
   </si>
   <si>
-    <t>93,25%</t>
+    <t>94,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>96,74%</t>
   </si>
   <si>
-    <t>92,6%</t>
+    <t>92,69%</t>
   </si>
   <si>
     <t>99,12%</t>
@@ -125,73 +125,73 @@
     <t>97,43%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>5,98%</t>
@@ -200,1126 +200,1108 @@
     <t>4,52%</t>
   </si>
   <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>8,78%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2016 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>85,44%</t>
   </si>
   <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>87,25%</t>
+    <t>87,14%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>88,38%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AD0BE7-88B9-486D-A597-D6160B97D28B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C104F425-514E-47DC-935E-DE6CBF730BCE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2201,7 +2183,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2198,13 @@
         <v>904292</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>831</v>
@@ -2231,13 +2213,13 @@
         <v>883371</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1674</v>
@@ -2246,13 +2228,13 @@
         <v>1787663</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2290,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2320,13 +2302,13 @@
         <v>34410</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -2335,13 +2317,13 @@
         <v>51772</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -2350,13 +2332,13 @@
         <v>86181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2353,13 @@
         <v>644099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>643</v>
@@ -2386,13 +2368,13 @@
         <v>632069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1252</v>
@@ -2401,13 +2383,13 @@
         <v>1276169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2445,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2475,13 +2457,13 @@
         <v>46571</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -2490,13 +2472,13 @@
         <v>110479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>155</v>
@@ -2505,13 +2487,13 @@
         <v>157050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2508,13 @@
         <v>895651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>890</v>
@@ -2541,13 +2523,13 @@
         <v>928133</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1836</v>
@@ -2556,13 +2538,13 @@
         <v>1823784</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2612,13 @@
         <v>166046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>277</v>
@@ -2645,13 +2627,13 @@
         <v>286526</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>439</v>
@@ -2660,13 +2642,13 @@
         <v>452571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,16 +2660,16 @@
         <v>3052</v>
       </c>
       <c r="D20" s="7">
-        <v>3110498</v>
+        <v>3110497</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>3020</v>
@@ -2696,13 +2678,13 @@
         <v>3092672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>6072</v>
@@ -2711,13 +2693,13 @@
         <v>6203170</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2711,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2773,7 +2755,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CF2252-27BA-4B37-923F-5AF8BFB5B3CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BA38FC-3C00-42DA-9E84-E1F101327E04}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2900,13 @@
         <v>9171</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -2933,13 +2915,13 @@
         <v>17334</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -2948,13 +2930,13 @@
         <v>26505</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2951,13 @@
         <v>105629</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -2984,13 +2966,13 @@
         <v>94571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -2999,13 +2981,13 @@
         <v>200200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3055,13 @@
         <v>49443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -3088,13 +3070,13 @@
         <v>79946</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -3103,13 +3085,13 @@
         <v>129388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3106,13 @@
         <v>538261</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>475</v>
@@ -3139,13 +3121,13 @@
         <v>503238</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>980</v>
@@ -3154,13 +3136,13 @@
         <v>1041500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3210,13 @@
         <v>82827</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -3243,13 +3225,13 @@
         <v>140012</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>199</v>
@@ -3258,13 +3240,13 @@
         <v>222839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3261,13 @@
         <v>932857</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>814</v>
@@ -3294,13 +3276,13 @@
         <v>890072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1673</v>
@@ -3309,13 +3291,13 @@
         <v>1822929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,7 +3353,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3383,13 +3365,13 @@
         <v>51608</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -3398,13 +3380,13 @@
         <v>88546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -3413,13 +3395,13 @@
         <v>140155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3416,13 @@
         <v>704607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>623</v>
@@ -3449,13 +3431,13 @@
         <v>686654</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1264</v>
@@ -3464,13 +3446,13 @@
         <v>1391259</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3508,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3538,13 +3520,13 @@
         <v>83459</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>136</v>
@@ -3553,13 +3535,13 @@
         <v>146438</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -3568,13 +3550,13 @@
         <v>229897</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3571,13 @@
         <v>863343</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>867</v>
@@ -3604,28 +3586,28 @@
         <v>905463</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1697</v>
       </c>
       <c r="N17" s="7">
-        <v>1768806</v>
+        <v>1768807</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,7 +3649,7 @@
         <v>1912</v>
       </c>
       <c r="N18" s="7">
-        <v>1998703</v>
+        <v>1998704</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3693,13 +3675,13 @@
         <v>276508</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>430</v>
@@ -3708,13 +3690,13 @@
         <v>472276</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>689</v>
@@ -3723,13 +3705,13 @@
         <v>748783</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3726,13 @@
         <v>3144697</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>2862</v>
@@ -3759,13 +3741,13 @@
         <v>3079998</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>5807</v>
@@ -3774,13 +3756,13 @@
         <v>6224695</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3818,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C98472B-12B1-4A4D-93F8-B326122E1EBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037B9E73-1ABE-461E-9F3B-5BA0484F5CFB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3963,13 @@
         <v>12289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -3996,13 +3978,13 @@
         <v>18844</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -4011,13 +3993,13 @@
         <v>31133</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4014,13 @@
         <v>103111</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -4047,13 +4029,13 @@
         <v>94516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>198</v>
@@ -4062,13 +4044,13 @@
         <v>197627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4118,13 @@
         <v>52036</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4151,13 +4133,13 @@
         <v>74664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
@@ -4166,13 +4148,13 @@
         <v>126700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4169,13 @@
         <v>505130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -4202,13 +4184,13 @@
         <v>483089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>965</v>
@@ -4217,13 +4199,13 @@
         <v>988219</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4273,13 @@
         <v>56974</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -4306,13 +4288,13 @@
         <v>96123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -4321,13 +4303,13 @@
         <v>153096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4324,13 @@
         <v>964470</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -4357,13 +4339,13 @@
         <v>946790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>1787</v>
@@ -4372,13 +4354,13 @@
         <v>1911261</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,7 +4416,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4446,13 +4428,13 @@
         <v>52039</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4461,13 +4443,13 @@
         <v>85104</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -4476,13 +4458,13 @@
         <v>137144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4479,13 @@
         <v>707513</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -4512,13 +4494,13 @@
         <v>697467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>1306</v>
@@ -4527,13 +4509,13 @@
         <v>1404980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4571,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4601,13 +4583,13 @@
         <v>76747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>124</v>
@@ -4616,13 +4598,13 @@
         <v>140609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -4631,13 +4613,13 @@
         <v>217356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4634,13 @@
         <v>858769</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>832</v>
@@ -4667,13 +4649,13 @@
         <v>900275</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>1687</v>
@@ -4682,13 +4664,13 @@
         <v>1759043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,10 +4741,10 @@
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>373</v>
@@ -4771,13 +4753,13 @@
         <v>415345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>614</v>
@@ -4786,13 +4768,13 @@
         <v>665430</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4789,13 @@
         <v>3138993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>2958</v>
@@ -4822,28 +4804,28 @@
         <v>3122136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>5943</v>
       </c>
       <c r="N20" s="7">
-        <v>6261129</v>
+        <v>6261130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4867,7 @@
         <v>6557</v>
       </c>
       <c r="N21" s="7">
-        <v>6926559</v>
+        <v>6926560</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4899,7 +4881,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C26E4A-A646-4C42-86E6-05ADB871FBCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBE114C-9D8A-4D76-9496-0D935DBCEF45}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5026,13 @@
         <v>6438</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5059,13 +5041,13 @@
         <v>7241</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5074,13 +5056,13 @@
         <v>13680</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5077,13 @@
         <v>94137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>226</v>
@@ -5110,13 +5092,13 @@
         <v>123116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>336</v>
@@ -5125,13 +5107,13 @@
         <v>217252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5181,13 @@
         <v>59105</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -5214,13 +5196,13 @@
         <v>82634</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -5229,13 +5211,13 @@
         <v>141739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5232,13 @@
         <v>490718</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>841</v>
@@ -5265,13 +5247,13 @@
         <v>508705</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>1384</v>
@@ -5280,13 +5262,13 @@
         <v>999423</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5336,13 @@
         <v>99582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>247</v>
@@ -5369,13 +5351,13 @@
         <v>161500</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>353</v>
@@ -5384,13 +5366,13 @@
         <v>261082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5387,13 @@
         <v>939170</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>1267</v>
@@ -5420,13 +5402,13 @@
         <v>896978</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>2124</v>
@@ -5435,13 +5417,13 @@
         <v>1836148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,7 +5479,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5509,13 +5491,13 @@
         <v>79823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -5524,13 +5506,13 @@
         <v>95208</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>209</v>
@@ -5539,13 +5521,13 @@
         <v>175031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5542,13 @@
         <v>647325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>915</v>
@@ -5575,13 +5557,13 @@
         <v>778344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>1512</v>
@@ -5590,13 +5572,13 @@
         <v>1425669</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5634,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5664,13 +5646,13 @@
         <v>117617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>274</v>
@@ -5679,13 +5661,13 @@
         <v>190504</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>410</v>
@@ -5694,13 +5676,13 @@
         <v>308121</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5697,13 @@
         <v>847786</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>1288</v>
@@ -5730,13 +5712,13 @@
         <v>959928</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>2158</v>
@@ -5745,13 +5727,13 @@
         <v>1807714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>402</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5801,13 @@
         <v>362565</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>820</v>
@@ -5834,13 +5816,13 @@
         <v>537088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>1216</v>
@@ -5849,13 +5831,13 @@
         <v>899653</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5852,13 @@
         <v>3019136</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>4537</v>
@@ -5885,13 +5867,13 @@
         <v>3267070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>7514</v>
@@ -5900,13 +5882,13 @@
         <v>6286206</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5944,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
